--- a/SE-4351.001-RE/Grades.xlsx
+++ b/SE-4351.001-RE/Grades.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\GradesTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\SE-4351.001-RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA5F47-68D4-43F7-83AD-CCD6C7AD4E95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>HW</t>
-  </si>
-  <si>
-    <t>Quiz</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Exam</t>
   </si>
@@ -66,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,9 +280,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -414,23 +404,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -466,23 +439,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,75 +629,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="22"/>
       <c r="L4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="14">
         <v>0.3</v>
       </c>
-      <c r="E5" s="14">
+      <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
-        <v>0.1</v>
-      </c>
       <c r="G5" s="12">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22">
         <f>SUM(C5:H5)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8">
         <f t="shared" ref="C6:H6" si="0">COUNT(C8:C21)</f>
@@ -749,15 +701,15 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -767,252 +719,214 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.255</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23">
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22">
         <f>SUM(C7:H7)</f>
-        <v>0.8680000000000001</v>
-      </c>
-      <c r="K7" s="23"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="K7" s="22"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
+      <c r="D8" s="21"/>
       <c r="E8" s="10">
         <v>0.9</v>
       </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
+      <c r="F8" s="19"/>
       <c r="G8" s="10">
         <v>0.9</v>
       </c>
       <c r="H8" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="20">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="21">
-        <v>1</v>
-      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="20"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
+      <c r="D10" s="18"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="21">
-        <v>1</v>
-      </c>
+      <c r="F10" s="20"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="20">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="21">
-        <v>1</v>
-      </c>
+      <c r="F11" s="20"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="20">
         <v>1</v>
       </c>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
+      <c r="F12" s="20"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
+      <c r="F13" s="20"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19">
-        <v>1</v>
-      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
+      <c r="F14" s="20"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>8</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
+      <c r="F15" s="20"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>9</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="21">
-        <v>1</v>
-      </c>
+      <c r="F16" s="20"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -1020,14 +934,14 @@
         <v>11</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="19"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -1035,14 +949,14 @@
         <v>12</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -1055,9 +969,9 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1070,22 +984,22 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -1106,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1118,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
